--- a/biology/Médecine/Leonardo_Botal/Leonardo_Botal.xlsx
+++ b/biology/Médecine/Leonardo_Botal/Leonardo_Botal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leonardo Botal (Léonard Botal), ou Botallo, est un médecin piémontais, né vers 1530 à Asti, en Piémont. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève de Lanfranc et de Fallopia[1], il s'établit à Paris en 1561, Leonardo Botal acquiert une grande célébrité par ses controverses avec la Faculté de médecine au sujet des saignées, dont il est partisan, et qu'il met à la mode en France, en abusant sur l'autorité d'Avicenne. Il rédige des textes sur les avantages de cette méthode. Il est médecin d'Élisabeth d'Autriche (épouse de Charles IX), de Henri III, puis de Catherine de Médicis. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de Lanfranc et de Fallopia, il s'établit à Paris en 1561, Leonardo Botal acquiert une grande célébrité par ses controverses avec la Faculté de médecine au sujet des saignées, dont il est partisan, et qu'il met à la mode en France, en abusant sur l'autorité d'Avicenne. Il rédige des textes sur les avantages de cette méthode. Il est médecin d'Élisabeth d'Autriche (épouse de Charles IX), de Henri III, puis de Catherine de Médicis. 
 Ses œuvres complètes ont été publiées à Leyde (1660) sous le titre de Opera omnia. 
 On a appelé de son nom trou de Botal l'ouverture qui fait communiquer les deux oreillettes du cœur dans le fœtus, non qu'il l'ait découverte (car elle était connue de Galien), mais parce qu'il rappela l'attention sur ce point d'anatomie.
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De curatione per sanguinis missionem liber ; de incidendae venæ, cutis scarificandæ et Hirudinum affigendarum modo, Lyon, 1577, 1580, in-8° ; Anvers, 1583, in-8° ; Lyon, 1655, in-8° ; on trouve dans cet ouvrage, et dans plusieurs autres, des preuves d'un fort bon esprit, et le germe de plusieurs des vérités que l'art a depuis consacrées.
 De curandis Vulneribus sclopettorum, Lyon, 1560, in-8° ; Venise, 1566, 1597, in-8° ; Francfort, 1575, in-4° ; Anvers, 1583, in-4°, avec les ouvrages d'Alfonso Ferri et de Gian Francesco Rota, sur le même sujet, en allemand, Nuremberg, 1676, in-8°. Dans cet ouvrage Botal combat la fausse opinion que les plaies d'armes à feu sont vénéneuses ; il y blame l'usage des tentes et du tamponnement dans les pansements, etc.
